--- a/MvnSeleniumProjecect/src/test/resources/testData/testData.xlsx
+++ b/MvnSeleniumProjecect/src/test/resources/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="11352" windowHeight="4308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="3510" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="quote" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="A1:H7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
   <si>
     <t>testID</t>
   </si>
@@ -40,27 +40,6 @@
     <t>test_id</t>
   </si>
   <si>
-    <t>args</t>
-  </si>
-  <si>
-    <t>args2</t>
-  </si>
-  <si>
-    <t>args3</t>
-  </si>
-  <si>
-    <t>CreateLeadwithLastnamCompany</t>
-  </si>
-  <si>
-    <t>Bangaru</t>
-  </si>
-  <si>
-    <t>AxisBank</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
     <t>arg1</t>
   </si>
   <si>
@@ -461,6 +440,42 @@
   </si>
   <si>
     <t>Reliance11</t>
+  </si>
+  <si>
+    <t>CreateLeadwithLastnameCompany</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Genpact</t>
+  </si>
+  <si>
+    <t>Tarun</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>TataSteel</t>
+  </si>
+  <si>
+    <t>LeadStatus</t>
+  </si>
+  <si>
+    <t>Contacted</t>
   </si>
 </sst>
 </file>
@@ -846,605 +861,605 @@
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1471,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1476,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H1" s="5"/>
     </row>
@@ -1491,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1520,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1535,13 +1550,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1602,7 +1617,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1610,15 +1625,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="145" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1626,30 +1644,53 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>141</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1706,7 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1679,7 +1720,7 @@
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1689,48 +1730,48 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1738,13 +1779,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/MvnSeleniumProjecect/src/test/resources/testData/testData.xlsx
+++ b/MvnSeleniumProjecect/src/test/resources/testData/testData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15105" windowHeight="3510" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
     <sheet name="org" sheetId="1" r:id="rId2"/>
-    <sheet name="contact" sheetId="3" r:id="rId3"/>
-    <sheet name="Leads" sheetId="6" r:id="rId4"/>
-    <sheet name="PRice" sheetId="4" r:id="rId5"/>
-    <sheet name="quote" sheetId="7" r:id="rId6"/>
+    <sheet name="salesorder" sheetId="9" r:id="rId3"/>
+    <sheet name="contact" sheetId="3" r:id="rId4"/>
+    <sheet name="Leads" sheetId="6" r:id="rId5"/>
+    <sheet name="PRice" sheetId="4" r:id="rId6"/>
+    <sheet name="quote" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1:H7"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="166">
   <si>
     <t>testID</t>
   </si>
@@ -40,6 +41,27 @@
     <t>test_id</t>
   </si>
   <si>
+    <t>args</t>
+  </si>
+  <si>
+    <t>args2</t>
+  </si>
+  <si>
+    <t>args3</t>
+  </si>
+  <si>
+    <t>CreateLeadwithLastnamCompany</t>
+  </si>
+  <si>
+    <t>Bangaru</t>
+  </si>
+  <si>
+    <t>AxisBank</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
     <t>arg1</t>
   </si>
   <si>
@@ -442,47 +464,68 @@
     <t>Reliance11</t>
   </si>
   <si>
-    <t>CreateLeadwithLastnameCompany</t>
-  </si>
-  <si>
-    <t>Fname</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>Genpact</t>
-  </si>
-  <si>
-    <t>Tarun</t>
-  </si>
-  <si>
-    <t>Verma</t>
-  </si>
-  <si>
-    <t>TataSteel</t>
-  </si>
-  <si>
-    <t>LeadStatus</t>
-  </si>
-  <si>
-    <t>Contacted</t>
+    <t>SubjectName</t>
+  </si>
+  <si>
+    <t>createSalesOrder</t>
+  </si>
+  <si>
+    <t>OrgName</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>SonyXperiaZ</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>ProductQty</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>SelectSalesOrderANDModifySony</t>
+  </si>
+  <si>
+    <t>NewSubjectName</t>
+  </si>
+  <si>
+    <t>Sonys</t>
+  </si>
+  <si>
+    <t>billadd</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>shipadd</t>
+  </si>
+  <si>
+    <t>SonyXperiaZ1</t>
+  </si>
+  <si>
+    <t>Sony244914</t>
+  </si>
+  <si>
+    <t>SonyXperia2447413</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -535,6 +578,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -543,7 +606,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -552,6 +615,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,9 +713,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -679,6 +748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -854,612 +924,612 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1468,14 +1538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
@@ -1483,7 +1553,7 @@
     <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1491,25 +1561,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1517,7 +1587,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1527,7 +1597,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1535,35 +1605,35 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1573,7 +1643,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1583,7 +1653,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1593,7 +1663,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1610,33 +1680,155 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="145" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1644,53 +1836,30 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1698,31 +1867,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="145" workbookViewId="0">
       <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1730,62 +1899,62 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
